--- a/Assets/StreamingAssets/GameData/ItemData.xlsx
+++ b/Assets/StreamingAssets/GameData/ItemData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>物品类型</t>
   </si>
@@ -35,7 +35,25 @@
     <t>物品名称</t>
   </si>
   <si>
+    <t>物品描述</t>
+  </si>
+  <si>
     <t>物品基本价值</t>
+  </si>
+  <si>
+    <t>物品标签</t>
+  </si>
+  <si>
+    <t>额外</t>
+  </si>
+  <si>
+    <t>ItemMoney</t>
+  </si>
+  <si>
+    <t>钱</t>
+  </si>
+  <si>
+    <t>劳动等价物</t>
   </si>
 </sst>
 </file>
@@ -48,14 +66,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,148 +522,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -977,20 +988,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1000,6 +1014,29 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/StreamingAssets/GameData/ItemData.xlsx
+++ b/Assets/StreamingAssets/GameData/ItemData.xlsx
@@ -667,8 +667,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -991,12 +992,12 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="18.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
@@ -1005,7 +1006,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1025,7 +1026,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">

--- a/Assets/StreamingAssets/GameData/ItemData.xlsx
+++ b/Assets/StreamingAssets/GameData/ItemData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>物品类型</t>
   </si>
@@ -41,10 +41,7 @@
     <t>物品基本价值</t>
   </si>
   <si>
-    <t>物品标签</t>
-  </si>
-  <si>
-    <t>额外</t>
+    <t>过期天数</t>
   </si>
   <si>
     <t>ItemMoney</t>
@@ -54,6 +51,16 @@
   </si>
   <si>
     <t>劳动等价物</t>
+  </si>
+  <si>
+    <t>ItemMission</t>
+  </si>
+  <si>
+    <t>留下工作</t>
+  </si>
+  <si>
+    <t>他是维持这家店运转的关键人物，你和他都知道
+别让他走</t>
   </si>
 </sst>
 </file>
@@ -667,9 +674,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -989,23 +999,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="46.125" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
     <col min="6" max="6" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1020,23 +1030,37 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2">
         <v>100</v>
+      </c>
+    </row>
+    <row r="20" ht="28.5" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>-1000</v>
+      </c>
+      <c r="E20">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/GameData/ItemData.xlsx
+++ b/Assets/StreamingAssets/GameData/ItemData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>物品类型</t>
   </si>
@@ -41,7 +41,20 @@
     <t>物品基本价值</t>
   </si>
   <si>
+    <t>标签集合</t>
+  </si>
+  <si>
     <t>过期天数</t>
+  </si>
+  <si>
+    <t>后续格子是额外追加设定
+根据物品类型自行设定</t>
+  </si>
+  <si>
+    <t>野路子古法数据驱动
+没有验证，没有缺省
+没有任何保护
+注意安全</t>
   </si>
   <si>
     <t>ItemMoney</t>
@@ -674,9 +687,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -999,67 +1021,78 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="46.125" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="27.375" customWidth="1"/>
+    <col min="8" max="8" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="57" customHeight="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
+      <c r="A2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
     </row>
-    <row r="20" ht="28.5" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
+    <row r="20" ht="28.5" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D20">
         <v>-1000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-1</v>
       </c>
     </row>

--- a/Assets/StreamingAssets/GameData/ItemData.xlsx
+++ b/Assets/StreamingAssets/GameData/ItemData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>物品类型</t>
   </si>
@@ -74,6 +74,9 @@
   <si>
     <t>他是维持这家店运转的关键人物，你和他都知道
 别让他走</t>
+  </si>
+  <si>
+    <t>谎言：</t>
   </si>
 </sst>
 </file>
@@ -1021,10 +1024,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1093,7 +1096,15 @@
         <v>-1000</v>
       </c>
       <c r="F20">
-        <v>-1</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/GameData/ItemData.xlsx
+++ b/Assets/StreamingAssets/GameData/ItemData.xlsx
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1093,7 +1093,7 @@
         <v>13</v>
       </c>
       <c r="D20">
-        <v>-1000</v>
+        <v>-150</v>
       </c>
       <c r="F20">
         <v>7</v>

--- a/Assets/StreamingAssets/GameData/ItemData.xlsx
+++ b/Assets/StreamingAssets/GameData/ItemData.xlsx
@@ -72,7 +72,8 @@
     <t>留下工作</t>
   </si>
   <si>
-    <t>他是维持这家店运转的关键人物，你和他都知道
+    <t>你和他都知道
+他是维持这家店运转的关键人物
 别让他走</t>
   </si>
   <si>
@@ -1027,7 +1028,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1082,7 +1083,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" ht="28.5" spans="1:6">
+    <row r="20" ht="42.75" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
